--- a/Beton/src/main/resources/dataSheets/testResults.xlsx
+++ b/Beton/src/main/resources/dataSheets/testResults.xlsx
@@ -15,12 +15,13 @@
     <sheet name="fullDetails" r:id="rId9" sheetId="7"/>
     <sheet name="Galaxy S5 SM-G900A Avner" r:id="rId10" sheetId="8"/>
     <sheet name="Chrome" r:id="rId11" sheetId="9"/>
+    <sheet name="Galaxy S6 Avner" r:id="rId12" sheetId="10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="138">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -633,6 +634,31 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.3203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="4.94921875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
